--- a/PLR_do/bubble_data/bubble_data6.xlsx
+++ b/PLR_do/bubble_data/bubble_data6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C05945-30FC-434B-94A2-FE7513F82539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553C7194-60F0-466E-9B97-8E13E0D67648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>city</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>Yichang</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xiangyang</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -503,7 +499,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,17 +526,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.42599999999999999</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C2" s="2">
-        <v>0.21099999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>0.29899999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E4" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
-        <v>3</v>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -548,16 +544,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.65</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="C3" s="2">
-        <v>0.23</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.254</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E26" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -566,13 +562,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="C4" s="2">
-        <v>0.253</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -584,17 +580,17 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.93600000000000005</v>
+        <v>0.997</v>
       </c>
       <c r="C5" s="2">
-        <v>0.315</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.54300000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" ref="E5:E27" si="1">IF(AND(B5&gt;0.9,C5&gt;0.4),"1",IF(AND(B5&gt;0.9,C5&lt;0.4),"2",IF(AND(B5&lt;0.9,C5&lt;0.4),"3","4")))</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -602,16 +598,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="C6" s="2">
-        <v>0.22700000000000001</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -620,16 +616,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="C7" s="2">
-        <v>0.224</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.32100000000000001</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -638,16 +634,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.72399999999999998</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="C8" s="2">
-        <v>0.24299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.41899999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -656,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.629</v>
+        <v>0.97</v>
       </c>
       <c r="C9" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D9" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -674,16 +670,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C10" s="2">
-        <v>0.24199999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="D10" s="2">
-        <v>0.42</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -692,17 +688,17 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.996</v>
+        <v>0.95</v>
       </c>
       <c r="C11" s="2">
-        <v>0.45400000000000001</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="D11" s="2">
-        <v>0.67300000000000004</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -710,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.54800000000000004</v>
+        <v>0.93</v>
       </c>
       <c r="C12" s="2">
-        <v>0.224</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.35</v>
+        <v>0.223</v>
       </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -728,16 +724,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.752</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.21199999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -746,16 +742,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="C14" s="2">
-        <v>0.22900000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.42499999999999999</v>
+        <v>0.187</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -764,16 +760,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.49299999999999999</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>0.217</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.32700000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -782,16 +778,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.68</v>
+        <v>0.879</v>
       </c>
       <c r="C16" s="2">
-        <v>0.23100000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.39700000000000002</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -800,16 +796,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>0.59799999999999998</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="C17" s="2">
-        <v>0.214</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -818,16 +814,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>0.68600000000000005</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>0.217</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -836,16 +832,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="C19" s="2">
-        <v>0.221</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.38300000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -854,16 +850,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="C20" s="2">
-        <v>0.22</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>0.35099999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -872,17 +868,17 @@
         <v>24</v>
       </c>
       <c r="B21" s="2">
-        <v>0.92700000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="C21" s="2">
-        <v>0.36499999999999999</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="D21" s="2">
-        <v>0.58099999999999996</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -890,16 +886,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="C22" s="2">
-        <v>0.219</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.40899999999999997</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -908,16 +904,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C23" s="2">
-        <v>0.214</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D23" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -926,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>0.78200000000000003</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>0.20699999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D24" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -944,16 +940,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2">
-        <v>0.67800000000000005</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C25" s="2">
-        <v>0.22900000000000001</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="D25" s="2">
-        <v>0.39400000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -962,37 +958,20 @@
         <v>29</v>
       </c>
       <c r="B26" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="C26" s="2">
-        <v>0.21099999999999999</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D26" s="2">
-        <v>0.4</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.222</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
